--- a/Purchasing_List_v3X_sa.xlsx
+++ b/Purchasing_List_v3X_sa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saxani/My Drive/CosmicWatch/Detector_Versions/CosmicWatch_v3X/KiCad/CosmicWatch_v3X_v26_printed_final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saxani/My Drive/CosmicWatch/GitHub/CosmicWatch-Desktop-Muon-Detector-v3X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9657DC7-281E-474B-9504-0D498D9DE113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD23F9C6-2866-0D40-86C0-FD6418CA58A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="760" windowWidth="29180" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -760,9 +760,6 @@
     <t>P7</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
     <t>Standoff mounting screw</t>
   </si>
   <si>
@@ -782,6 +779,9 @@
   </si>
   <si>
     <t>U9 (NOTE: GND must be outemost pin)</t>
+  </si>
+  <si>
+    <t>U3 (pin 1 (anode) indicated by outer line)</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1475,7 @@
   <dimension ref="B1:O1011"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F41" s="36">
         <v>28.41</v>
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F48" s="49">
         <v>5</v>
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F51" s="49">
         <v>1.69</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F52" s="49">
         <v>2.6</v>
@@ -3178,7 +3178,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F55" s="44">
         <v>0.7</v>
@@ -3206,7 +3206,7 @@
         <v>31</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D56" s="43">
         <v>4</v>
@@ -3247,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F57" s="44">
         <f>2.65/100</f>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F59" s="59">
         <v>0.99</v>

--- a/Purchasing_List_v3X_sa.xlsx
+++ b/Purchasing_List_v3X_sa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saxani/My Drive/CosmicWatch/GitHub/CosmicWatch-Desktop-Muon-Detector-v3X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C4C7D7-0B54-0E4C-90A0-D2F6BE5C2719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D12758-E7C7-1941-BAE1-36A2541586B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11900" yWindow="760" windowWidth="18340" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="249">
   <si>
     <t>Note 1: The color defines the seller of the component. Components are rather generic, therefore you should be able to use your favorite distributor.</t>
   </si>
@@ -652,9 +652,6 @@
     <t>R31</t>
   </si>
   <si>
-    <t>R9,R29,R28,R8,R18,R23,R13</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -782,6 +779,21 @@
   </si>
   <si>
     <t>U3 (pin 1 (anode) indicated by outer line)</t>
+  </si>
+  <si>
+    <t>10k Ohm resistor</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R9,R29,R28,R8,R18,R13</t>
+  </si>
+  <si>
+    <t>RES SMD 10k OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0805FR-0710KL/727535</t>
   </si>
 </sst>
 </file>
@@ -1472,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O1011"/>
+  <dimension ref="B1:O1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1610,7 +1622,7 @@
         <v>0.12</v>
       </c>
       <c r="H10" s="34">
-        <f t="shared" ref="H10:H59" si="0">D10*F10</f>
+        <f t="shared" ref="H10:H60" si="0">D10*F10</f>
         <v>0.8</v>
       </c>
       <c r="I10" s="34">
@@ -1648,7 +1660,7 @@
         <v>0.1</v>
       </c>
       <c r="I11" s="34">
-        <f t="shared" ref="I11:I59" si="1">G11*D11/10</f>
+        <f t="shared" ref="I11:I60" si="1">G11*D11/10</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J11" s="34" t="s">
@@ -1700,10 +1712,10 @@
         <v>24</v>
       </c>
       <c r="D13" s="35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="F13" s="36">
         <v>0.1</v>
@@ -1712,12 +1724,12 @@
         <v>0.25</v>
       </c>
       <c r="H13" s="34">
-        <f t="shared" si="0"/>
-        <v>0.70000000000000007</v>
+        <f t="shared" ref="H13" si="2">D13*F13</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I13" s="34">
-        <f t="shared" si="1"/>
-        <v>0.17499999999999999</v>
+        <f t="shared" ref="I13" si="3">G13*D13/10</f>
+        <v>0.15</v>
       </c>
       <c r="J13" s="34" t="s">
         <v>25</v>
@@ -1728,22 +1740,22 @@
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="D14" s="35">
         <v>1</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="F14" s="36">
         <v>0.1</v>
       </c>
       <c r="G14" s="36">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="H14" s="34">
         <f t="shared" si="0"/>
@@ -1751,163 +1763,163 @@
       </c>
       <c r="I14" s="34">
         <f t="shared" si="1"/>
-        <v>2.7000000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>29</v>
+        <v>247</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="35">
         <v>1</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F15" s="36">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G15" s="36">
-        <v>1.08</v>
+        <v>0.27</v>
       </c>
       <c r="H15" s="34">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I15" s="34">
         <f t="shared" si="1"/>
-        <v>0.10800000000000001</v>
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" s="35">
         <v>1</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F16" s="36">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G16" s="36">
-        <v>0.61</v>
+        <v>1.08</v>
       </c>
       <c r="H16" s="34">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I16" s="34">
         <f t="shared" si="1"/>
-        <v>6.0999999999999999E-2</v>
+        <v>0.10800000000000001</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F17" s="36">
         <v>0.1</v>
       </c>
       <c r="G17" s="36">
-        <v>0.14000000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="H17" s="34">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="I17" s="34">
         <f t="shared" si="1"/>
-        <v>4.2000000000000003E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D18" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F18" s="36">
         <v>0.1</v>
       </c>
       <c r="G18" s="36">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H18" s="34">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I18" s="34">
         <f t="shared" si="1"/>
-        <v>1.2E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" s="35">
         <v>1</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F19" s="36">
         <v>0.1</v>
@@ -1924,982 +1936,980 @@
         <v>1.2E-2</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D20" s="35">
         <v>1</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F20" s="36">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G20" s="36">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="H20" s="34">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I20" s="34">
         <f t="shared" si="1"/>
-        <v>1.6E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D21" s="35">
         <v>1</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F21" s="36">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G21" s="36">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="H21" s="34">
         <f t="shared" si="0"/>
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I21" s="34">
         <f t="shared" si="1"/>
-        <v>3.4999999999999996E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22" s="35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F22" s="36">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="G22" s="36">
-        <v>1.08</v>
+        <v>0.35</v>
       </c>
       <c r="H22" s="34">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.11</v>
       </c>
       <c r="I22" s="34">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>3.4999999999999996E-2</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="39">
-        <v>7</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>211</v>
+        <v>51</v>
+      </c>
+      <c r="D23" s="35">
+        <v>5</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="F23" s="36">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="G23" s="36">
-        <v>0.63</v>
+        <v>1.08</v>
       </c>
       <c r="H23" s="34">
         <f t="shared" si="0"/>
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="I23" s="34">
         <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.54</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K23" s="37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D24" s="39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F24" s="36">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G24" s="36">
-        <v>0.08</v>
+        <v>0.63</v>
       </c>
       <c r="H24" s="34">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>0.77</v>
       </c>
       <c r="I24" s="34">
         <f t="shared" si="1"/>
-        <v>4.8000000000000001E-2</v>
+        <v>0.441</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D25" s="39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F25" s="36">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G25" s="36">
-        <v>0.49</v>
+        <v>0.08</v>
       </c>
       <c r="H25" s="34">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="I25" s="34">
         <f t="shared" si="1"/>
-        <v>9.8000000000000004E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D26" s="39">
         <v>2</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F26" s="36">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G26" s="36">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="H26" s="34">
         <f t="shared" si="0"/>
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I26" s="34">
         <f t="shared" si="1"/>
-        <v>0.122</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D27" s="39">
         <v>2</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F27" s="36">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G27" s="36">
-        <v>0.11</v>
+        <v>0.61</v>
       </c>
       <c r="H27" s="34">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I27" s="34">
         <f t="shared" si="1"/>
-        <v>2.1999999999999999E-2</v>
+        <v>0.122</v>
       </c>
       <c r="J27" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="40" t="s">
-        <v>69</v>
+      <c r="B28" s="33">
+        <v>19</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D28" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F28" s="36">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G28" s="36">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="H28" s="34">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I28" s="34">
         <f t="shared" si="1"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="39">
+        <v>1</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F29" s="36">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="G29" s="36">
-        <v>6.31</v>
+        <v>0.22</v>
       </c>
       <c r="H29" s="34">
         <f t="shared" si="0"/>
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="I29" s="34">
         <f t="shared" si="1"/>
-        <v>0.63100000000000001</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="33">
-        <v>24</v>
+      <c r="B30" s="40" t="s">
+        <v>73</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="39">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F30" s="36">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="G30" s="36">
-        <v>40</v>
+        <v>6.31</v>
       </c>
       <c r="H30" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="I30" s="34">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J30" s="41" t="s">
-        <v>180</v>
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="33">
-        <f t="shared" ref="B31:B57" si="2">B30+1</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" s="39">
         <v>1</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F31" s="36">
-        <v>0.15</v>
+        <v>4</v>
       </c>
       <c r="G31" s="36">
-        <v>1.22</v>
+        <v>40</v>
       </c>
       <c r="H31" s="34">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>4</v>
       </c>
       <c r="I31" s="34">
         <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>81</v>
+        <v>4</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>180</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="33">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f t="shared" ref="B32:B58" si="4">B31+1</f>
+        <v>25</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D32" s="39">
         <v>1</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F32" s="36">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G32" s="36">
-        <v>0.54</v>
+        <v>1.22</v>
       </c>
       <c r="H32" s="34">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I32" s="34">
         <f t="shared" si="1"/>
-        <v>5.4000000000000006E-2</v>
+        <v>0.122</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="33">
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D33" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F33" s="36">
-        <v>1.92</v>
+        <v>0.1</v>
       </c>
       <c r="G33" s="36">
-        <v>11.92</v>
+        <v>0.54</v>
       </c>
       <c r="H33" s="34">
         <f t="shared" si="0"/>
-        <v>3.84</v>
+        <v>0.1</v>
       </c>
       <c r="I33" s="34">
         <f t="shared" si="1"/>
-        <v>2.3839999999999999</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K33" s="37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D34" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F34" s="36">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="G34" s="36">
-        <v>12.26</v>
+        <v>11.92</v>
       </c>
       <c r="H34" s="34">
         <f t="shared" si="0"/>
-        <v>1.67</v>
+        <v>3.84</v>
       </c>
       <c r="I34" s="34">
         <f t="shared" si="1"/>
-        <v>1.226</v>
+        <v>2.3839999999999999</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K34" s="37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="33">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D35" s="39">
         <v>1</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F35" s="36">
-        <v>0.13</v>
+        <v>1.67</v>
       </c>
       <c r="G35" s="36">
-        <v>0.8</v>
+        <v>12.26</v>
       </c>
       <c r="H35" s="34">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>1.67</v>
       </c>
       <c r="I35" s="34">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>1.226</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K35" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33">
-        <v>26</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D36" s="39">
         <v>1</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F36" s="36">
-        <v>0.89</v>
+        <v>0.13</v>
       </c>
       <c r="G36" s="36">
-        <v>7.55</v>
+        <v>0.8</v>
       </c>
       <c r="H36" s="34">
         <f t="shared" si="0"/>
-        <v>0.89</v>
+        <v>0.13</v>
       </c>
       <c r="I36" s="34">
         <f t="shared" si="1"/>
-        <v>0.755</v>
+        <v>0.08</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K36" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D37" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="39" t="s">
         <v>224</v>
       </c>
       <c r="F37" s="36">
-        <v>0.13</v>
+        <v>0.89</v>
       </c>
       <c r="G37" s="36">
-        <v>0.73</v>
+        <v>7.55</v>
       </c>
       <c r="H37" s="34">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>0.89</v>
       </c>
       <c r="I37" s="34">
         <f t="shared" si="1"/>
-        <v>0.14599999999999999</v>
+        <v>0.755</v>
       </c>
       <c r="J37" s="34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K37" s="37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D38" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F38" s="36">
-        <v>2.48</v>
+        <v>0.13</v>
       </c>
       <c r="G38" s="36">
-        <v>21.07</v>
+        <v>0.73</v>
       </c>
       <c r="H38" s="34">
         <f t="shared" si="0"/>
-        <v>2.48</v>
+        <v>0.26</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="1"/>
-        <v>2.1070000000000002</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="J38" s="34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K38" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="33">
-        <v>27</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D39" s="39">
         <v>1</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F39" s="36">
-        <v>0.33</v>
+        <v>2.48</v>
       </c>
       <c r="G39" s="36">
-        <v>2.82</v>
+        <v>21.07</v>
       </c>
       <c r="H39" s="34">
         <f t="shared" si="0"/>
-        <v>0.33</v>
+        <v>2.48</v>
       </c>
       <c r="I39" s="34">
         <f t="shared" si="1"/>
-        <v>0.28199999999999997</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K39" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="33">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D40" s="39">
         <v>1</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F40" s="36">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="G40" s="36">
-        <v>4.51</v>
+        <v>2.82</v>
       </c>
       <c r="H40" s="34">
-        <f t="shared" ref="H40:H41" si="3">D40*F40</f>
-        <v>0.53</v>
+        <f t="shared" si="0"/>
+        <v>0.33</v>
       </c>
       <c r="I40" s="34">
-        <f t="shared" ref="I40:I41" si="4">G40*D40/10</f>
-        <v>0.45099999999999996</v>
+        <f t="shared" si="1"/>
+        <v>0.28199999999999997</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="K40" s="37" t="s">
-        <v>137</v>
+        <v>107</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="33">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D41" s="39">
         <v>1</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F41" s="36">
+        <v>0.53</v>
+      </c>
+      <c r="G41" s="36">
+        <v>4.51</v>
+      </c>
+      <c r="H41" s="34">
+        <f t="shared" ref="H41:H42" si="5">D41*F41</f>
+        <v>0.53</v>
+      </c>
+      <c r="I41" s="34">
+        <f t="shared" ref="I41:I42" si="6">G41*D41/10</f>
+        <v>0.45099999999999996</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="K41" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="33">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="39">
+        <v>1</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="F42" s="36">
         <v>28.41</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G42" s="36">
         <v>251.47</v>
       </c>
-      <c r="H41" s="34">
-        <f t="shared" si="3"/>
+      <c r="H42" s="34">
+        <f t="shared" si="5"/>
         <v>28.41</v>
       </c>
-      <c r="I41" s="34">
-        <f t="shared" si="4"/>
+      <c r="I42" s="34">
+        <f t="shared" si="6"/>
         <v>25.146999999999998</v>
       </c>
-      <c r="J41" s="34" t="s">
+      <c r="J42" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="K41" s="37" t="s">
+      <c r="K42" s="37" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="67">
-        <f>B39+1</f>
+    <row r="43" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="67">
+        <f>B40+1</f>
         <v>28</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C43" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="68">
+        <v>1</v>
+      </c>
+      <c r="E43" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="68">
-        <v>1</v>
-      </c>
-      <c r="E42" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="F42" s="69">
+      <c r="F43" s="69">
         <v>0.45</v>
       </c>
-      <c r="G42" s="69">
+      <c r="G43" s="69">
         <v>3.83</v>
       </c>
-      <c r="H42" s="70">
+      <c r="H43" s="70">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="I42" s="70">
+      <c r="I43" s="70">
         <f t="shared" si="1"/>
         <v>0.38300000000000001</v>
       </c>
-      <c r="J42" s="70" t="s">
+      <c r="J43" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="K42" s="71" t="s">
+      <c r="K43" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="L42" s="72"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-    </row>
-    <row r="43" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="47">
-        <f t="shared" si="2"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+    </row>
+    <row r="44" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="47">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C44" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D44" s="48">
         <v>1</v>
       </c>
-      <c r="E43" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="F43" s="49">
+      <c r="E44" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="49">
         <f>6.89/10</f>
         <v>0.68899999999999995</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G44" s="49">
         <v>6.89</v>
       </c>
-      <c r="H43" s="50">
+      <c r="H44" s="50">
         <f t="shared" si="0"/>
         <v>0.68899999999999995</v>
       </c>
-      <c r="I43" s="50">
+      <c r="I44" s="50">
         <f t="shared" si="1"/>
         <v>0.68899999999999995</v>
       </c>
-      <c r="J43" s="50" t="s">
+      <c r="J44" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="K43" s="51" t="s">
+      <c r="K44" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="L44" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="47">
+    <row r="45" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="47">
         <v>28</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C45" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D45" s="48">
         <v>1</v>
       </c>
-      <c r="E44" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="49">
+      <c r="E45" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="49">
         <f>7.39/5</f>
         <v>1.478</v>
       </c>
-      <c r="G44" s="49">
+      <c r="G45" s="49">
         <f>7.39*2</f>
         <v>14.78</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H45" s="50">
         <f t="shared" si="0"/>
         <v>1.478</v>
       </c>
-      <c r="I44" s="50">
+      <c r="I45" s="50">
         <f t="shared" si="1"/>
         <v>1.478</v>
       </c>
-      <c r="J44" s="50" t="s">
+      <c r="J45" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="K44" s="51" t="s">
+      <c r="K45" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L45" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="47">
-        <f t="shared" si="2"/>
+    <row r="46" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="47">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C46" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="48">
+      <c r="D46" s="48">
         <v>1</v>
       </c>
-      <c r="E45" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="F45" s="49">
+      <c r="E46" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" s="49">
         <v>6.99</v>
       </c>
-      <c r="G45" s="49">
+      <c r="G46" s="49">
         <f>3.663333333*10</f>
         <v>36.633333329999999</v>
       </c>
-      <c r="H45" s="50">
+      <c r="H46" s="50">
         <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
-      <c r="I45" s="50">
+      <c r="I46" s="50">
         <f t="shared" si="1"/>
         <v>3.6633333329999997</v>
       </c>
-      <c r="J45" s="50" t="s">
+      <c r="J46" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="K45" s="51" t="s">
+      <c r="K46" s="51" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="47">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="48">
-        <v>1</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="F46" s="49">
-        <f t="shared" ref="F46:F47" si="5">6.99/100</f>
-        <v>6.9900000000000004E-2</v>
-      </c>
-      <c r="G46" s="49">
-        <f t="shared" ref="G46:G47" si="6">6.99/10</f>
-        <v>0.69900000000000007</v>
-      </c>
-      <c r="H46" s="50">
-        <f t="shared" si="0"/>
-        <v>6.9900000000000004E-2</v>
-      </c>
-      <c r="I46" s="50">
-        <f t="shared" si="1"/>
-        <v>6.9900000000000004E-2</v>
-      </c>
-      <c r="J46" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="K46" s="51" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="47" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="47">
-        <v>29</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D47" s="48">
         <v>1</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F47" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F47:F48" si="7">6.99/100</f>
         <v>6.9900000000000004E-2</v>
       </c>
       <c r="G47" s="49">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G47:G48" si="8">6.99/10</f>
         <v>0.69900000000000007</v>
       </c>
       <c r="H47" s="50">
@@ -2911,739 +2921,763 @@
         <v>6.9900000000000004E-2</v>
       </c>
       <c r="J47" s="50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K47" s="51" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="47">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D48" s="48">
         <v>1</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F48" s="49">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>6.9900000000000004E-2</v>
       </c>
       <c r="G48" s="49">
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>0.69900000000000007</v>
       </c>
       <c r="H48" s="50">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.9900000000000004E-2</v>
       </c>
       <c r="I48" s="50">
         <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="J48" s="52" t="s">
-        <v>181</v>
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="J48" s="50" t="s">
+        <v>126</v>
       </c>
       <c r="K48" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="47">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D49" s="48">
         <v>1</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F49" s="49">
+        <v>5</v>
+      </c>
+      <c r="G49" s="49">
+        <v>28</v>
+      </c>
+      <c r="H49" s="50">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I49" s="50">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="J49" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="K49" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="47">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="48">
+        <v>1</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F50" s="49">
         <f>7.29/6</f>
         <v>1.2150000000000001</v>
       </c>
-      <c r="G49" s="49">
-        <f>F49*10</f>
+      <c r="G50" s="49">
+        <f>F50*10</f>
         <v>12.15</v>
       </c>
-      <c r="H49" s="50">
+      <c r="H50" s="50">
         <f t="shared" si="0"/>
         <v>1.2150000000000001</v>
       </c>
-      <c r="I49" s="50">
+      <c r="I50" s="50">
         <f t="shared" si="1"/>
         <v>1.2150000000000001</v>
       </c>
-      <c r="J49" s="50" t="s">
+      <c r="J50" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="K49" s="51" t="s">
+      <c r="K50" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="L50" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="47">
-        <v>32</v>
-      </c>
-      <c r="C50" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="54">
-        <v>1</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="49">
-        <v>0.01</v>
-      </c>
-      <c r="G50" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="H50" s="50">
-        <f>D50*F50</f>
-        <v>0.01</v>
-      </c>
-      <c r="I50" s="50">
-        <f t="shared" ref="I50:I54" si="7">G50*D50/10</f>
-        <v>0.01</v>
-      </c>
-      <c r="J50" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="K50" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="L50" s="56"/>
     </row>
     <row r="51" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="47">
-        <f t="shared" si="2"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D51" s="54">
         <v>1</v>
       </c>
-      <c r="E51" s="48" t="s">
-        <v>241</v>
-      </c>
+      <c r="E51" s="54"/>
       <c r="F51" s="49">
-        <v>1.69</v>
+        <v>0.01</v>
       </c>
       <c r="G51" s="49">
-        <v>16.920000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="H51" s="50">
-        <f t="shared" ref="H51:H54" si="8">D51*F51</f>
-        <v>1.69</v>
+        <f>D51*F51</f>
+        <v>0.01</v>
       </c>
       <c r="I51" s="50">
-        <f t="shared" si="7"/>
-        <v>1.6920000000000002</v>
+        <f t="shared" ref="I51:I55" si="9">G51*D51/10</f>
+        <v>0.01</v>
       </c>
       <c r="J51" s="52" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K51" s="55" t="s">
-        <v>172</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="L51" s="56"/>
     </row>
     <row r="52" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="47">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="48">
+        <v>170</v>
+      </c>
+      <c r="D52" s="54">
         <v>1</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F52" s="49">
-        <v>2.6</v>
+        <v>1.69</v>
       </c>
       <c r="G52" s="49">
-        <v>26</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="H52" s="50">
-        <f t="shared" si="8"/>
-        <v>2.6</v>
+        <f t="shared" ref="H52:H55" si="10">D52*F52</f>
+        <v>1.69</v>
       </c>
       <c r="I52" s="50">
-        <f t="shared" si="7"/>
-        <v>2.6</v>
+        <f t="shared" si="9"/>
+        <v>1.6920000000000002</v>
       </c>
       <c r="J52" s="52" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="K52" s="55" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="47">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D53" s="48">
         <v>1</v>
       </c>
-      <c r="E53" s="48"/>
+      <c r="E53" s="48" t="s">
+        <v>241</v>
+      </c>
       <c r="F53" s="49">
+        <v>2.6</v>
+      </c>
+      <c r="G53" s="49">
+        <v>26</v>
+      </c>
+      <c r="H53" s="50">
+        <f t="shared" si="10"/>
+        <v>2.6</v>
+      </c>
+      <c r="I53" s="50">
+        <f t="shared" si="9"/>
+        <v>2.6</v>
+      </c>
+      <c r="J53" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="K53" s="55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="47">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="C54" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="48">
+        <v>1</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49">
         <f>8.89/6</f>
         <v>1.4816666666666667</v>
       </c>
-      <c r="G53" s="49">
+      <c r="G54" s="49">
         <f>8.89</f>
         <v>8.89</v>
       </c>
-      <c r="H53" s="50">
-        <f t="shared" si="8"/>
+      <c r="H54" s="50">
+        <f t="shared" si="10"/>
         <v>1.4816666666666667</v>
       </c>
-      <c r="I53" s="50">
-        <f t="shared" si="7"/>
+      <c r="I54" s="50">
+        <f t="shared" si="9"/>
         <v>0.88900000000000001</v>
       </c>
-      <c r="J53" s="52" t="s">
+      <c r="J54" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="K53" s="55" t="s">
+      <c r="K54" s="55" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="47">
-        <f t="shared" si="2"/>
+    <row r="55" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="47">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C55" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="48">
+      <c r="D55" s="48">
         <v>1</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49">
+      <c r="E55" s="48"/>
+      <c r="F55" s="49">
         <v>6.54</v>
       </c>
-      <c r="G54" s="49">
-        <f>F54*10</f>
+      <c r="G55" s="49">
+        <f>F55*10</f>
         <v>65.400000000000006</v>
       </c>
-      <c r="H54" s="50">
-        <f t="shared" si="8"/>
+      <c r="H55" s="50">
+        <f t="shared" si="10"/>
         <v>6.54</v>
       </c>
-      <c r="I54" s="50">
-        <f t="shared" si="7"/>
+      <c r="I55" s="50">
+        <f t="shared" si="9"/>
         <v>6.5400000000000009</v>
       </c>
-      <c r="J54" s="52" t="s">
+      <c r="J55" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="K54" s="55" t="s">
+      <c r="K55" s="55" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="42" t="e">
+    <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="42" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C56" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="D55" s="43">
+      <c r="D56" s="43">
         <v>2</v>
       </c>
-      <c r="E55" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="F55" s="44">
+      <c r="E56" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="F56" s="44">
         <v>0.7</v>
       </c>
-      <c r="G55" s="44">
+      <c r="G56" s="44">
         <v>5.9</v>
       </c>
-      <c r="H55" s="45">
+      <c r="H56" s="45">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="I55" s="45">
+      <c r="I56" s="45">
         <f t="shared" si="1"/>
         <v>1.1800000000000002</v>
       </c>
-      <c r="J55" s="45" t="s">
+      <c r="J56" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="K55" s="46" t="s">
+      <c r="K56" s="46" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="42">
+    <row r="57" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="42">
         <v>31</v>
       </c>
-      <c r="C56" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="D56" s="43">
+      <c r="C57" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="43">
         <v>4</v>
       </c>
-      <c r="E56" s="43"/>
-      <c r="F56" s="44">
+      <c r="E57" s="43"/>
+      <c r="F57" s="44">
         <f>6.79/100</f>
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="G56" s="44">
+      <c r="G57" s="44">
         <f>6.79/10</f>
         <v>0.67900000000000005</v>
       </c>
-      <c r="H56" s="45">
+      <c r="H57" s="45">
         <f t="shared" si="0"/>
         <v>0.27160000000000001</v>
       </c>
-      <c r="I56" s="45">
+      <c r="I57" s="45">
         <f t="shared" si="1"/>
         <v>0.27160000000000001</v>
       </c>
-      <c r="J56" s="45" t="s">
+      <c r="J57" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="K56" s="46" t="s">
+      <c r="K57" s="46" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="42">
-        <f t="shared" si="2"/>
+    <row r="58" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="42">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C58" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="43">
+      <c r="D58" s="43">
         <v>4</v>
       </c>
-      <c r="E57" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="F57" s="44">
+      <c r="E58" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="F58" s="44">
         <f>2.65/100</f>
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="G57" s="44">
-        <f>F57*10</f>
+      <c r="G58" s="44">
+        <f>F58*10</f>
         <v>0.26500000000000001</v>
       </c>
-      <c r="H57" s="45">
+      <c r="H58" s="45">
         <f t="shared" si="0"/>
         <v>0.106</v>
       </c>
-      <c r="I57" s="45">
+      <c r="I58" s="45">
         <f t="shared" si="1"/>
         <v>0.10600000000000001</v>
       </c>
-      <c r="J57" s="45" t="s">
+      <c r="J58" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="K57" s="46" t="s">
+      <c r="K58" s="46" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="57">
-        <f>B56+1</f>
+    <row r="59" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="57">
+        <f>B57+1</f>
         <v>32</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C59" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="D58" s="58">
+      <c r="D59" s="58">
         <v>1</v>
       </c>
-      <c r="E58" s="58"/>
-      <c r="F58" s="59">
+      <c r="E59" s="58"/>
+      <c r="F59" s="59">
         <v>19</v>
       </c>
-      <c r="G58" s="59">
+      <c r="G59" s="59">
         <v>190</v>
       </c>
-      <c r="H58" s="60">
+      <c r="H59" s="60">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I58" s="60">
+      <c r="I59" s="60">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="J58" s="61" t="s">
+      <c r="J59" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="K58" s="62" t="s">
+      <c r="K59" s="62" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="57" t="e">
+    <row r="60" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="57" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C60" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="D59" s="64">
+      <c r="D60" s="64">
         <v>1</v>
       </c>
-      <c r="E59" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="F59" s="59">
+      <c r="E60" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="F60" s="59">
         <v>0.99</v>
       </c>
-      <c r="G59" s="59">
+      <c r="G60" s="59">
         <v>9.9499999999999993</v>
       </c>
-      <c r="H59" s="60">
+      <c r="H60" s="60">
         <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
-      <c r="I59" s="60">
+      <c r="I60" s="60">
         <f t="shared" si="1"/>
         <v>0.99499999999999988</v>
       </c>
-      <c r="J59" s="61" t="s">
+      <c r="J60" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="K59" s="65" t="s">
+      <c r="K60" s="65" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="1"/>
-      <c r="C60" s="18" t="s">
+    <row r="61" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+      <c r="C61" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="17">
-        <f>SUM(D10:D59)</f>
+      <c r="D61" s="17">
+        <f>SUM(D10:D60)</f>
         <v>91</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="12">
-        <f>SUM(F2:F59)</f>
-        <v>92.897866666666658</v>
-      </c>
-      <c r="G60" s="12">
-        <f>SUM(G2:G59)</f>
-        <v>795.81533332999982</v>
-      </c>
-      <c r="H60" s="12">
-        <f>SUM(H27:H59)</f>
+      <c r="E61" s="17"/>
+      <c r="F61" s="12">
+        <f>SUM(F2:F60)</f>
+        <v>92.997866666666667</v>
+      </c>
+      <c r="G61" s="12">
+        <f>SUM(G2:G60)</f>
+        <v>796.06533332999982</v>
+      </c>
+      <c r="H61" s="12">
+        <f>SUM(H28:H60)</f>
         <v>94.141066666666674</v>
       </c>
-      <c r="I60" s="12">
-        <f>SUM(I27:I59)</f>
+      <c r="I61" s="12">
+        <f>SUM(I28:I60)</f>
         <v>81.080733333000012</v>
       </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="2:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B62" s="20" t="s">
+    <row r="62" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B63" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="7" t="s">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D64" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8" t="s">
+      <c r="E64" s="7"/>
+      <c r="F64" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G64" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="21" t="s">
+      <c r="I64" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J64" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="K64" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="23">
+    <row r="65" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="23">
         <v>1</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C65" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D64" s="24">
+      <c r="D65" s="24">
         <v>4</v>
       </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="25">
+      <c r="E65" s="24"/>
+      <c r="F65" s="25">
         <f>3.99/100</f>
         <v>3.9900000000000005E-2</v>
       </c>
-      <c r="G64" s="25">
-        <f>100*F64</f>
+      <c r="G65" s="25">
+        <f>100*F65</f>
         <v>3.9900000000000007</v>
       </c>
-      <c r="H64" s="26">
-        <f t="shared" ref="H64:H68" si="9">D64*F64</f>
+      <c r="H65" s="26">
+        <f t="shared" ref="H65:H69" si="11">D65*F65</f>
         <v>0.15960000000000002</v>
       </c>
-      <c r="I64" s="27">
-        <f t="shared" ref="I64:I68" si="10">G64*D64/10</f>
+      <c r="I65" s="27">
+        <f t="shared" ref="I65:I69" si="12">G65*D65/10</f>
         <v>1.5960000000000003</v>
       </c>
-      <c r="J64" s="28" t="s">
+      <c r="J65" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="K64" s="29" t="s">
+      <c r="K65" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="L64" s="10" t="s">
+      <c r="L65" s="10" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="23">
-        <v>2</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="D65" s="24">
-        <v>1</v>
-      </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="25">
-        <v>9</v>
-      </c>
-      <c r="G65" s="25">
-        <v>90</v>
-      </c>
-      <c r="H65" s="26">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="I65" s="27">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="J65" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="K65" s="32" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="66" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D66" s="24">
         <v>1</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G66" s="25">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="H66" s="26">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
       <c r="I66" s="27">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-      <c r="J66" s="28" t="s">
-        <v>159</v>
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="J66" s="31" t="s">
+        <v>182</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="23">
-        <f t="shared" ref="B67:B68" si="11">B66+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D67" s="24">
         <v>1</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="25">
+        <v>1</v>
+      </c>
+      <c r="G67" s="25">
+        <v>5</v>
+      </c>
+      <c r="H67" s="26">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I67" s="27">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="J67" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="K67" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="23">
+        <f t="shared" ref="B68:B69" si="13">B67+1</f>
+        <v>4</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="24">
+        <v>1</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="25">
         <f>6.09/20</f>
         <v>0.30449999999999999</v>
       </c>
-      <c r="G67" s="25">
-        <f t="shared" ref="G67:G68" si="12">F67*10</f>
+      <c r="G68" s="25">
+        <f t="shared" ref="G68:G69" si="14">F68*10</f>
         <v>3.0449999999999999</v>
       </c>
-      <c r="H67" s="26">
-        <f t="shared" si="9"/>
+      <c r="H68" s="26">
+        <f t="shared" si="11"/>
         <v>0.30449999999999999</v>
       </c>
-      <c r="I67" s="27">
-        <f t="shared" si="10"/>
+      <c r="I68" s="27">
+        <f t="shared" si="12"/>
         <v>0.30449999999999999</v>
       </c>
-      <c r="J67" s="28" t="s">
+      <c r="J68" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="K67" s="32" t="s">
+      <c r="K68" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="L67" s="13" t="s">
+      <c r="L68" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="23">
-        <f t="shared" si="11"/>
+    <row r="69" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="23">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C69" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D69" s="24">
         <v>1</v>
       </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="25">
+      <c r="E69" s="24"/>
+      <c r="F69" s="25">
         <f>11.39/100</f>
         <v>0.1139</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G69" s="25">
+        <f t="shared" si="14"/>
+        <v>1.139</v>
+      </c>
+      <c r="H69" s="26">
+        <f t="shared" si="11"/>
+        <v>0.1139</v>
+      </c>
+      <c r="I69" s="27">
         <f t="shared" si="12"/>
-        <v>1.139</v>
-      </c>
-      <c r="H68" s="26">
-        <f t="shared" si="9"/>
         <v>0.1139</v>
       </c>
-      <c r="I68" s="27">
-        <f t="shared" si="10"/>
-        <v>0.1139</v>
-      </c>
-      <c r="J68" s="28" t="s">
+      <c r="J69" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="K68" s="32" t="s">
+      <c r="K69" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="L68" s="13" t="s">
+      <c r="L69" s="13" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="1"/>
-      <c r="C69" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D69" s="17">
-        <f>SUM(D64:D68)</f>
-        <v>8</v>
-      </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="12">
-        <f t="shared" ref="F69:I69" si="13">SUM(F64:F68)</f>
-        <v>10.458299999999999</v>
-      </c>
-      <c r="G69" s="12">
-        <f t="shared" si="13"/>
-        <v>103.17399999999999</v>
-      </c>
-      <c r="H69" s="12">
-        <f t="shared" si="13"/>
-        <v>10.577999999999998</v>
-      </c>
-      <c r="I69" s="12">
-        <f t="shared" si="13"/>
-        <v>11.5144</v>
-      </c>
-      <c r="J69" s="1"/>
-      <c r="K69" s="19"/>
     </row>
     <row r="70" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="C70" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="17">
+        <f>SUM(D65:D69)</f>
+        <v>8</v>
+      </c>
+      <c r="E70" s="17"/>
+      <c r="F70" s="12">
+        <f t="shared" ref="F70:I70" si="15">SUM(F65:F69)</f>
+        <v>10.458299999999999</v>
+      </c>
+      <c r="G70" s="12">
+        <f t="shared" si="15"/>
+        <v>103.17399999999999</v>
+      </c>
+      <c r="H70" s="12">
+        <f t="shared" si="15"/>
+        <v>10.577999999999998</v>
+      </c>
+      <c r="I70" s="12">
+        <f t="shared" si="15"/>
+        <v>11.5144</v>
+      </c>
       <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K70" s="19"/>
+    </row>
+    <row r="71" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3655,35 +3689,35 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E72" s="22"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14">
-        <f>H69+H60</f>
-        <v>104.71906666666668</v>
-      </c>
-      <c r="I72" s="14">
-        <f>I69+I60</f>
-        <v>92.595133333000007</v>
-      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="D73" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E73" s="22"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14">
+        <f>H70+H61</f>
+        <v>104.71906666666668</v>
+      </c>
+      <c r="I73" s="14">
+        <f>I70+I61</f>
+        <v>92.595133333000007</v>
+      </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
@@ -3699,7 +3733,18 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
     <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4636,72 +4681,74 @@
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="K12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="K22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K29" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K34" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K36" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K37" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K38" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L38" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="L39" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="L43" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K44" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L44" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K45" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="K46" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="K47" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K48" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="L48" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K49" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K55" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K56" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K58" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K64" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="L64" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="K65" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="K66" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K67" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="L67" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K68" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="L68" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="K59" r:id="rId54" xr:uid="{42388441-1BAB-8040-B7D7-0E95263EED92}"/>
-    <hyperlink ref="K39" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K42" r:id="rId56" display="https://www.aliexpress.us/item/2255800047081475.html?spm=a2g0o.productlist.main.5.75041f08oHxKQj&amp;algo_pvid=f5a390b0-14d5-48aa-8d78-c397a6a95e25&amp;algo_exp_id=f5a390b0-14d5-48aa-8d78-c397a6a95e25-2&amp;pdp_npi=4@dis!USD!1.86!1.86!!!1.86!1.86!@2103080e17246694755947771e7eb6!10000000946738865!sea!US!6040781666!X&amp;curPageLogUid=AuMGfRufyP3g&amp;utparam-url=scene:search%7Cquery_from:" xr:uid="{02C5D793-7844-7C4B-AB63-1D3ACCFA52FB}"/>
-    <hyperlink ref="K57" r:id="rId57" xr:uid="{5CD98EDD-0785-9044-A311-311F3ECFD9A1}"/>
-    <hyperlink ref="K50" r:id="rId58" xr:uid="{9473A601-1C5A-5A4F-A239-C3C2976A3B2C}"/>
-    <hyperlink ref="K51" r:id="rId59" display="https://www.amazon.com/Lichamp-Electrical-Waterproof-Industrial-Electric/dp/B07VNTC9LH/ref=sr_1_2_pp?crid=3LCB146OV0WJI&amp;dib=eyJ2IjoiMSJ9.Gcl4RNv8zp225gq0DAHkVi4EDCIq6D5AzeEl8wUS-2kTHgABCYWdM0lrkBwrC6UxC8Ef4YyRNKwF7vNuBw-aTVGNhJIg_WzYaUcfJ4GlJWXieTI7fwRWBMVYsPK0xuZKg5fsyXEOvMxt6ctoMXw_qb-oTLRsmL1Y21WXFEQTszCN59tWRd8Yyh7NFhDmEUPrL5lsuSnftzG0bXoeHHLLyT8TeHSw4fh-0OjyDDp-0Ik.9VYv_LrRUWx0K5tPN1byAXXHpDxFfnFxWOSeu-zEIr4&amp;dib_tag=se&amp;keywords=black+electrical+tape&amp;qid=1736882194&amp;sprefix=black+electrical+tape%2Caps%2C144&amp;sr=8-2" xr:uid="{285D6D4C-F01F-B144-A6C0-1E4D9A03D7B8}"/>
-    <hyperlink ref="K52" r:id="rId60" display="https://www.amazon.com/EASTBULL-4GB-Full-Video-Surveillance/dp/B0C39YHGC3/ref=sr_1_1?dib=eyJ2IjoiMSJ9.sAlKXbutqga0Xw4SHbAQgGXLJG5i50U81J1SxIQZNecmani74K4CvBbp0WngBmFY_6dUY1gUl_W1JU7sWcRUt-zecg60PF4NSP9VfwxJmzTpQWSXJlSEVMLiy1JSTMgYUc9vKmlFgNJQ8LddKmTUdOenLYc79HxAm_h_bhBE3GV9UdWy6QoM4P4AJryAJIZWH1Wy3iQPekqIyuoZGTDlSg8Pavk2Q8lRxGiefbLOWeA.ZK9EJLA31WcUoI9JS50-7N9OogisIeDaybxDi_lFb1c&amp;dib_tag=se&amp;keywords=4gb%2Bmicro%2Bsd%2Bcard&amp;qid=1749637941&amp;sr=8-1&amp;th=1" xr:uid="{798A5315-9ECE-0142-A3F2-4CEE403E1CC3}"/>
-    <hyperlink ref="K54" r:id="rId61" display="https://www.amazon.com/Monoprice-Viper-HD-SDI-RG6-Cable/dp/B01LYOSYOA/ref=sr_1_8?crid=D0YP3QV8Y59W&amp;dib=eyJ2IjoiMSJ9.ouVMlXtW52xcQCNVfWhdMHtWze7aPQGA57QfMcnibn2Fp_zEIPZbB-CYSkktuk-58ZNGVwM9jBUV3PdTJJ19jSjF9Yq3ZNLEqDZG5mCFOACkVjpLGSLZSNOKofcjhKaH1AXli7hhgHccFD7xq5wm5UznqXsbSxDvQpfcv3GTCW8N29P5q4sDC-wUFiokqC92v4rTFOcjse6sWY-rexljwke2k3gowVvTNrtCrLhqTbI.cBa7HpzQ2Q4vtAqxxz0G3ohUmivEOZNBlIvOpHOaRy0&amp;dib_tag=se&amp;keywords=bnc+cable&amp;qid=1746125810&amp;sprefix=bnc+cabl%2Caps%2C128&amp;sr=8-8" xr:uid="{677EFAF4-0D9B-9541-A8F7-01F855D8E00A}"/>
-    <hyperlink ref="K53" r:id="rId62" xr:uid="{584BCE5D-1043-E741-B0AF-7BFA1F66D4FB}"/>
-    <hyperlink ref="K40" r:id="rId63" xr:uid="{19999EB4-E50A-0246-A820-5A7B75580D24}"/>
-    <hyperlink ref="K41" r:id="rId64" xr:uid="{9B71B206-FEF2-AC45-9D09-8F825585B2E2}"/>
+    <hyperlink ref="K15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K23" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K27" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K28" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K29" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K30" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K33" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K34" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K35" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K36" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K37" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L39" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L40" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K44" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="L44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L45" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K46" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K47" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K48" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K49" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="L49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K50" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K56" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K57" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K59" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K65" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L65" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K66" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K67" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K68" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="L68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="L69" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K60" r:id="rId53" xr:uid="{42388441-1BAB-8040-B7D7-0E95263EED92}"/>
+    <hyperlink ref="K40" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K43" r:id="rId55" display="https://www.aliexpress.us/item/2255800047081475.html?spm=a2g0o.productlist.main.5.75041f08oHxKQj&amp;algo_pvid=f5a390b0-14d5-48aa-8d78-c397a6a95e25&amp;algo_exp_id=f5a390b0-14d5-48aa-8d78-c397a6a95e25-2&amp;pdp_npi=4@dis!USD!1.86!1.86!!!1.86!1.86!@2103080e17246694755947771e7eb6!10000000946738865!sea!US!6040781666!X&amp;curPageLogUid=AuMGfRufyP3g&amp;utparam-url=scene:search%7Cquery_from:" xr:uid="{02C5D793-7844-7C4B-AB63-1D3ACCFA52FB}"/>
+    <hyperlink ref="K58" r:id="rId56" xr:uid="{5CD98EDD-0785-9044-A311-311F3ECFD9A1}"/>
+    <hyperlink ref="K51" r:id="rId57" xr:uid="{9473A601-1C5A-5A4F-A239-C3C2976A3B2C}"/>
+    <hyperlink ref="K52" r:id="rId58" display="https://www.amazon.com/Lichamp-Electrical-Waterproof-Industrial-Electric/dp/B07VNTC9LH/ref=sr_1_2_pp?crid=3LCB146OV0WJI&amp;dib=eyJ2IjoiMSJ9.Gcl4RNv8zp225gq0DAHkVi4EDCIq6D5AzeEl8wUS-2kTHgABCYWdM0lrkBwrC6UxC8Ef4YyRNKwF7vNuBw-aTVGNhJIg_WzYaUcfJ4GlJWXieTI7fwRWBMVYsPK0xuZKg5fsyXEOvMxt6ctoMXw_qb-oTLRsmL1Y21WXFEQTszCN59tWRd8Yyh7NFhDmEUPrL5lsuSnftzG0bXoeHHLLyT8TeHSw4fh-0OjyDDp-0Ik.9VYv_LrRUWx0K5tPN1byAXXHpDxFfnFxWOSeu-zEIr4&amp;dib_tag=se&amp;keywords=black+electrical+tape&amp;qid=1736882194&amp;sprefix=black+electrical+tape%2Caps%2C144&amp;sr=8-2" xr:uid="{285D6D4C-F01F-B144-A6C0-1E4D9A03D7B8}"/>
+    <hyperlink ref="K53" r:id="rId59" display="https://www.amazon.com/EASTBULL-4GB-Full-Video-Surveillance/dp/B0C39YHGC3/ref=sr_1_1?dib=eyJ2IjoiMSJ9.sAlKXbutqga0Xw4SHbAQgGXLJG5i50U81J1SxIQZNecmani74K4CvBbp0WngBmFY_6dUY1gUl_W1JU7sWcRUt-zecg60PF4NSP9VfwxJmzTpQWSXJlSEVMLiy1JSTMgYUc9vKmlFgNJQ8LddKmTUdOenLYc79HxAm_h_bhBE3GV9UdWy6QoM4P4AJryAJIZWH1Wy3iQPekqIyuoZGTDlSg8Pavk2Q8lRxGiefbLOWeA.ZK9EJLA31WcUoI9JS50-7N9OogisIeDaybxDi_lFb1c&amp;dib_tag=se&amp;keywords=4gb%2Bmicro%2Bsd%2Bcard&amp;qid=1749637941&amp;sr=8-1&amp;th=1" xr:uid="{798A5315-9ECE-0142-A3F2-4CEE403E1CC3}"/>
+    <hyperlink ref="K55" r:id="rId60" display="https://www.amazon.com/Monoprice-Viper-HD-SDI-RG6-Cable/dp/B01LYOSYOA/ref=sr_1_8?crid=D0YP3QV8Y59W&amp;dib=eyJ2IjoiMSJ9.ouVMlXtW52xcQCNVfWhdMHtWze7aPQGA57QfMcnibn2Fp_zEIPZbB-CYSkktuk-58ZNGVwM9jBUV3PdTJJ19jSjF9Yq3ZNLEqDZG5mCFOACkVjpLGSLZSNOKofcjhKaH1AXli7hhgHccFD7xq5wm5UznqXsbSxDvQpfcv3GTCW8N29P5q4sDC-wUFiokqC92v4rTFOcjse6sWY-rexljwke2k3gowVvTNrtCrLhqTbI.cBa7HpzQ2Q4vtAqxxz0G3ohUmivEOZNBlIvOpHOaRy0&amp;dib_tag=se&amp;keywords=bnc+cable&amp;qid=1746125810&amp;sprefix=bnc+cabl%2Caps%2C128&amp;sr=8-8" xr:uid="{677EFAF4-0D9B-9541-A8F7-01F855D8E00A}"/>
+    <hyperlink ref="K54" r:id="rId61" xr:uid="{584BCE5D-1043-E741-B0AF-7BFA1F66D4FB}"/>
+    <hyperlink ref="K41" r:id="rId62" xr:uid="{19999EB4-E50A-0246-A820-5A7B75580D24}"/>
+    <hyperlink ref="K42" r:id="rId63" xr:uid="{9B71B206-FEF2-AC45-9D09-8F825585B2E2}"/>
+    <hyperlink ref="K13" r:id="rId64" xr:uid="{D3CD0C83-1A6F-514F-BC39-C6C32498B4B2}"/>
+    <hyperlink ref="K14" r:id="rId65" xr:uid="{1480FEE5-3339-B845-B045-E7AB298C32D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Purchasing_List_v3X_sa.xlsx
+++ b/Purchasing_List_v3X_sa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saxani/My Drive/CosmicWatch/GitHub/CosmicWatch-Desktop-Muon-Detector-v3X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF3FAEE-58AE-E74A-8D88-D24B2134C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499AFB46-B51B-C149-88BB-E88B03FC28A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="760" windowWidth="29180" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,9 +637,6 @@
     <t>Total cost:</t>
   </si>
   <si>
-    <t>0.5 ft (or longer) CAT6 Cable</t>
-  </si>
-  <si>
     <t>BNC cable for testing (optional)</t>
   </si>
   <si>
@@ -794,6 +791,9 @@
   </si>
   <si>
     <t>Digikey Part Number: RNCP0805FTD10K0DKR</t>
+  </si>
+  <si>
+    <t>0.5 ft (or longer) CAT6 Cable (STRAIGHT-Thru ONLY)</t>
   </si>
 </sst>
 </file>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="88" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1613,7 +1613,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F10" s="36">
         <v>0.1</v>
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F11" s="36">
         <v>0.1</v>
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F12" s="36">
         <v>0.1</v>
@@ -1715,7 +1715,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F13" s="36">
         <v>0.1</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F14" s="36">
         <v>0.1</v>
@@ -1777,13 +1777,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D15" s="35">
         <v>1</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F15" s="36">
         <v>0.1</v>
@@ -1800,10 +1800,10 @@
         <v>2.7000000000000003E-2</v>
       </c>
       <c r="J15" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K15" s="38" t="s">
         <v>247</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F16" s="36">
         <v>0.14000000000000001</v>
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F17" s="36">
         <v>0.1</v>
@@ -1885,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18" s="36">
         <v>0.1</v>
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" s="36">
         <v>0.1</v>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F20" s="36">
         <v>0.1</v>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F21" s="36">
         <v>0.13</v>
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F22" s="36">
         <v>0.11</v>
@@ -2055,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F23" s="36">
         <v>0.19</v>
@@ -2089,7 +2089,7 @@
         <v>7</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F24" s="36">
         <v>0.11</v>
@@ -2123,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F25" s="36">
         <v>0.08</v>
@@ -2157,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F26" s="36">
         <v>0.1</v>
@@ -2191,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F27" s="36">
         <v>0.11</v>
@@ -2225,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F28" s="36">
         <v>0.08</v>
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F29" s="36">
         <v>0.1</v>
@@ -2293,7 +2293,7 @@
         <v>75</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F30" s="36">
         <v>1.04</v>
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F31" s="36">
         <v>4</v>
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F32" s="36">
         <v>0.15</v>
@@ -2397,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F33" s="36">
         <v>0.1</v>
@@ -2431,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F34" s="36">
         <v>1.92</v>
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F35" s="36">
         <v>1.67</v>
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F36" s="36">
         <v>0.13</v>
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F37" s="36">
         <v>0.89</v>
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F38" s="36">
         <v>0.13</v>
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F39" s="36">
         <v>2.48</v>
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F40" s="36">
         <v>0.33</v>
@@ -2679,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F41" s="36">
         <v>0.53</v>
@@ -2714,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F42" s="36">
         <v>28.41</v>
@@ -2743,13 +2743,13 @@
         <v>28</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D43" s="68">
         <v>1</v>
       </c>
       <c r="E43" s="68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F43" s="69">
         <v>0.45</v>
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F44" s="49">
         <f>6.89/10</f>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F45" s="49">
         <f>7.39/5</f>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F46" s="49">
         <v>6.99</v>
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F47" s="49">
         <f t="shared" ref="F47:F48" si="7">6.99/100</f>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F48" s="49">
         <f t="shared" si="7"/>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F49" s="49">
         <v>5</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F50" s="49">
         <f>7.29/6</f>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F52" s="49">
         <v>1.69</v>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F53" s="49">
         <v>2.6</v>
@@ -3171,8 +3171,8 @@
         <f t="shared" si="9"/>
         <v>0.88900000000000001</v>
       </c>
-      <c r="J54" s="52" t="s">
-        <v>196</v>
+      <c r="J54" s="50" t="s">
+        <v>248</v>
       </c>
       <c r="K54" s="55" t="s">
         <v>193</v>
@@ -3184,7 +3184,7 @@
         <v>35</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D55" s="48">
         <v>1</v>
@@ -3224,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F56" s="44">
         <v>0.7</v>
@@ -3252,7 +3252,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D57" s="43">
         <v>4</v>
@@ -3293,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F58" s="44">
         <f>2.65/100</f>
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F60" s="59">
         <v>0.99</v>
